--- a/tut05/output/0401EE12.xlsx
+++ b/tut05/output/0401EE12.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.489795918367347</v>
+        <v>6.49</v>
       </c>
       <c r="C6" t="n">
         <v>5.5</v>
       </c>
       <c r="D6" t="n">
-        <v>5.847826086956522</v>
+        <v>5.85</v>
       </c>
       <c r="E6" t="n">
-        <v>6.369565217391305</v>
+        <v>6.37</v>
       </c>
       <c r="F6" t="n">
-        <v>6.384615384615385</v>
+        <v>6.38</v>
       </c>
       <c r="G6" t="n">
         <v>5.95</v>
       </c>
       <c r="H6" t="n">
-        <v>6.674418604651163</v>
+        <v>6.67</v>
       </c>
       <c r="I6" t="n">
-        <v>6.631578947368421</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.489795918367347</v>
+        <v>6.49</v>
       </c>
       <c r="C8" t="n">
-        <v>6.021505376344086</v>
+        <v>6.02</v>
       </c>
       <c r="D8" t="n">
-        <v>5.964028776978417</v>
+        <v>5.96</v>
       </c>
       <c r="E8" t="n">
-        <v>6.064864864864865</v>
+        <v>6.06</v>
       </c>
       <c r="F8" t="n">
-        <v>6.120535714285714</v>
+        <v>6.12</v>
       </c>
       <c r="G8" t="n">
-        <v>6.09469696969697</v>
+        <v>6.09</v>
       </c>
       <c r="H8" t="n">
-        <v>6.175895765472313</v>
+        <v>6.18</v>
       </c>
       <c r="I8" t="n">
-        <v>6.226086956521739</v>
+        <v>6.23</v>
       </c>
     </row>
   </sheetData>
